--- a/optimization/Gurobi/5 districts/With meaningful graphs generation/Excel files/1-R to D.xlsx
+++ b/optimization/Gurobi/5 districts/With meaningful graphs generation/Excel files/1-R to D.xlsx
@@ -354,7 +354,7 @@
         <v>2</v>
       </c>
       <c r="C1">
-        <v>236231.9999999991</v>
+        <v>236232</v>
       </c>
     </row>
     <row r="2" spans="1:3">
